--- a/DataSets - Copy.xlsx
+++ b/DataSets - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\junit-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89087E4-B822-4A59-9458-F1E8B44F64CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8146D5-2EF9-4518-A1B0-F2E6D56AB12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5505" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25470" yWindow="-1455" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Method</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>environmentCase</t>
+  </si>
+  <si>
+    <t>noMethod</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,6 +404,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
